--- a/docs/collections/koshu/metadata/data.xlsx
+++ b/docs/collections/koshu/metadata/data.xlsx
@@ -99,46 +99,46 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/law/document/102a847a-ea96-464a-84ba-cb714696bfbd</t>
   </si>
   <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>102a847a-ea96-464a-84ba-cb714696bfbd</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/10</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koshu/</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/koshu/manifests/koshu.json</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
     <t>サムネイル</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/10/default.jpg</t>
-  </si>
-  <si>
-    <t>マニフェストURI</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/koshu/manifests/koshu.json</t>
-  </si>
-  <si>
-    <t>ソート用</t>
-  </si>
-  <si>
-    <t>コレクション名</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>102a847a-ea96-464a-84ba-cb714696bfbd</t>
-  </si>
-  <si>
-    <t>サイトURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koshu/</t>
-  </si>
-  <si>
-    <t>機械可読データ</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/10</t>
-  </si>
-  <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>年</t>
   </si>
   <si>
     <t>uterms:annotedManifest</t>
@@ -565,28 +565,28 @@
         <v>26</v>
       </c>
       <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" t="s">
-        <v>32</v>
-      </c>
       <c r="W1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" t="s">
         <v>38</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>39</v>
       </c>
       <c r="AA1" t="s">
         <v>40</v>
@@ -629,23 +629,23 @@
       <c r="Q2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" t="s">
         <v>29</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
         <v>1</v>
       </c>
-      <c r="V2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>37</v>
+      <c r="Z2" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>41</v>
@@ -664,10 +664,10 @@
   <hyperlinks>
     <hyperlink ref="P2" r:id="rId1"/>
     <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="R2" r:id="rId3"/>
-    <hyperlink ref="S2" r:id="rId4"/>
-    <hyperlink ref="W2" r:id="rId5"/>
-    <hyperlink ref="X2" r:id="rId6"/>
+    <hyperlink ref="V2" r:id="rId3"/>
+    <hyperlink ref="W2" r:id="rId4"/>
+    <hyperlink ref="X2" r:id="rId5"/>
+    <hyperlink ref="Z2" r:id="rId6"/>
     <hyperlink ref="AA2" r:id="rId7"/>
     <hyperlink ref="AB2" r:id="rId8"/>
     <hyperlink ref="AC2" r:id="rId9"/>

--- a/docs/collections/koshu/metadata/data.xlsx
+++ b/docs/collections/koshu/metadata/data.xlsx
@@ -14,15 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>資料名/Title</t>
   </si>
   <si>
+    <t>dcterms:title</t>
+  </si>
+  <si>
     <t>甲州法度之次第</t>
   </si>
   <si>
     <t>解題/Description</t>
+  </si>
+  <si>
+    <t>dcterms:description</t>
   </si>
   <si>
     <t>【解題】甲州法度之次第(東京大学法学部法制史資料室所蔵本)_x000D_
@@ -36,19 +42,31 @@
     <t>出版事項/Publication, Discribution, etc.Area</t>
   </si>
   <si>
+    <t>dcterms:publisher</t>
+  </si>
+  <si>
     <t>数量/Unit</t>
   </si>
   <si>
+    <t>dcterms:extent</t>
+  </si>
+  <si>
     <t>巻子; 1巻</t>
   </si>
   <si>
     <t>日付/Date</t>
   </si>
   <si>
+    <t>dcterms:date</t>
+  </si>
+  <si>
     <t>天正8年/1580</t>
   </si>
   <si>
-    <t>所蔵/Location</t>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
   </si>
   <si>
     <t>東京大学法学部研究室図書室法制史資料室 / Legal History Section, Faculty of Law Library, the University of Tokyo</t>
@@ -57,112 +75,187 @@
     <t>所蔵年次/Year</t>
   </si>
   <si>
+    <t>dcndl:holdingIssues</t>
+  </si>
+  <si>
     <t>所蔵巻号/Volumes</t>
   </si>
   <si>
+    <t>dcndl:volume</t>
+  </si>
+  <si>
     <t>請求記号/Call No.</t>
   </si>
   <si>
+    <t>dcndl:callNumber</t>
+  </si>
+  <si>
     <t>甲:2:3693</t>
   </si>
   <si>
     <t>資料区分/Document Categoly</t>
   </si>
   <si>
+    <t>dcterms:type</t>
+  </si>
+  <si>
     <t>古文書;Historical Documents</t>
   </si>
   <si>
     <t>データ形式/Format</t>
   </si>
   <si>
+    <t>dcterms:format</t>
+  </si>
+  <si>
     <t>本文言語/Language</t>
   </si>
   <si>
+    <t>dcterms:language</t>
+  </si>
+  <si>
     <t>地域/Region</t>
   </si>
   <si>
+    <t>dcterms:spatial</t>
+  </si>
+  <si>
     <t>備考/Comments</t>
   </si>
   <si>
+    <t>rdfs:comment</t>
+  </si>
+  <si>
     <t>書誌番号/Bib.ID</t>
   </si>
   <si>
-    <t>ライセンス/License</t>
+    <t>dcterms:identifier</t>
+  </si>
+  <si>
+    <t>利用条件</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
   </si>
   <si>
     <t>https://www.lib.j.u-tokyo.ac.jp/digitalarchive/terms/legalhistorysectionterms.html</t>
   </si>
   <si>
-    <t>URL</t>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>dcterms:relation</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/law/document/102a847a-ea96-464a-84ba-cb714696bfbd</t>
   </si>
   <si>
-    <t>年</t>
+    <t>Annotated Manifest</t>
+  </si>
+  <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/10/manifest.json</t>
+  </si>
+  <si>
+    <t>Text with Rich Text Format</t>
+  </si>
+  <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
+    <t>https://utda.github.io/text/rtf/102a847a-ea96-464a-84ba-cb714696bfbd.rtf</t>
+  </si>
+  <si>
+    <t>Link to TAPAS Project</t>
+  </si>
+  <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
+    <t>http://tapasproject.org/tapas-commons/files/甲州法度之次第</t>
+  </si>
+  <si>
+    <t>Search Api Uri</t>
+  </si>
+  <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/kPzFpI4mtex7HdRmrZL1ew9r7OCgdDPvNX2g0njpVtBywlyhooghaIDF9TDMS%EF%BC%8BvUVN4VOwDy1Vp1%EF%BC%8BtH%EF%BC%8B3oU5hRhxL%EF%BC%8BEHPis3o5UucFHDPKE%3D</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>102a847a-ea96-464a-84ba-cb714696bfbd</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koshu/</t>
+  </si>
+  <si>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/10/default.jpg</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/10</t>
   </si>
   <si>
     <t>viewingDirection</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>102a847a-ea96-464a-84ba-cb714696bfbd</t>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/102a847a-ea96-464a-84ba-cb714696bfbd/manifest</t>
   </si>
   <si>
     <t>ソート用項目</t>
   </si>
   <si>
-    <t>機械可読ドキュメント</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/10</t>
-  </si>
-  <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koshu/</t>
-  </si>
-  <si>
-    <t>IIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/koshu/manifests/koshu.json</t>
-  </si>
-  <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/10/default.jpg</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/10/manifest.json</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
-    <t>http://tapasproject.org/tapas-commons/files/甲州法度之次第</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t>https://utda.github.io/text/rtf/102a847a-ea96-464a-84ba-cb714696bfbd.rtf</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/kPzFpI4mtex7HdRmrZL1ew9r7OCgdDPvNX2g0njpVtBywlyhooghaIDF9TDMS%EF%BC%8BvUVN4VOwDy1Vp1%EF%BC%8BtH%EF%BC%8B3oU5hRhxL%EF%BC%8BEHPis3o5UucFHDPKE%3D</t>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t># of media</t>
   </si>
 </sst>
 </file>
@@ -180,10 +273,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,14 +295,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -503,175 +600,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="P1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="Q1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="R1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="S1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="T1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="U1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="V1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="W1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="Z1" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="AA1" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="AB1" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="AC1" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="AD1" t="s">
-        <v>46</v>
+        <v>76</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE3">
         <v>1</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="V2" r:id="rId3"/>
-    <hyperlink ref="W2" r:id="rId4"/>
-    <hyperlink ref="X2" r:id="rId5"/>
-    <hyperlink ref="Z2" r:id="rId6"/>
-    <hyperlink ref="AA2" r:id="rId7"/>
-    <hyperlink ref="AB2" r:id="rId8"/>
-    <hyperlink ref="AC2" r:id="rId9"/>
-    <hyperlink ref="AD2" r:id="rId10"/>
+    <hyperlink ref="P3" r:id="rId1"/>
+    <hyperlink ref="Q3" r:id="rId2"/>
+    <hyperlink ref="R3" r:id="rId3"/>
+    <hyperlink ref="S3" r:id="rId4"/>
+    <hyperlink ref="T3" r:id="rId5"/>
+    <hyperlink ref="U3" r:id="rId6"/>
+    <hyperlink ref="W3" r:id="rId7"/>
+    <hyperlink ref="X3" r:id="rId8"/>
+    <hyperlink ref="Y3" r:id="rId9"/>
+    <hyperlink ref="AB3" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/collections/koshu/metadata/data.xlsx
+++ b/docs/collections/koshu/metadata/data.xlsx
@@ -251,7 +251,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/102a847a-ea96-464a-84ba-cb714696bfbd/manifest</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/kPzFpI4mtex7HdRmrZL1ew9r7OCgdDPvNX2g0njpVtBywlyhooghaIDF9TDMS%EF%BC%8BvUVN4VOwDy1Vp1%EF%BC%8BtH%EF%BC%8B3oU5hRhxL%EF%BC%8BEHPis3o5UucFHDPKE%3D</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/78da0dca610e82300c06d013b505d30cf036dfba11d0ea88ab116fafeff7db228e7e15c1cbb68240afc1c5790fe33745bb7f1bc3f8768835f76ab1b76717c747a29e21e7c3651c2e987502552c89342968d60cb23c8d9a9694d75cf81f7fe36723c2</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/10/manifest.json</t>
@@ -260,7 +260,7 @@
     <t>http://tapasproject.org/tapas-commons/files/甲州法度之次第</t>
   </si>
   <si>
-    <t>https://utda.github.io/text/rtf/102a847a-ea96-464a-84ba-cb714696bfbd.rtf</t>
+    <t>https://archdataset.dl.itc.u-tokyo.ac.jp/collections/law/text/rtf/102a847a-ea96-464a-84ba-cb714696bfbd.rtf</t>
   </si>
 </sst>
 </file>
